--- a/Project-folder-structure for CM/Project Tracking/Work Breakdown Structure/WBS_UniversityAdmissionSystem.xlsx
+++ b/Project-folder-structure for CM/Project Tracking/Work Breakdown Structure/WBS_UniversityAdmissionSystem.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PLP presentation Bhanu\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PLP University\Project-folder-structure for CM\Project Tracking\Work Breakdown Structure\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="60">
   <si>
     <t>PLP High Level Work Breakdown structure</t>
   </si>
@@ -56,15 +56,6 @@
     <t>1. Detailed WBS</t>
   </si>
   <si>
-    <t>2. Understanding document</t>
-  </si>
-  <si>
-    <t>3. Updated Query Tracking Sheet</t>
-  </si>
-  <si>
-    <t>4. Minutes of Meeting(one sample)</t>
-  </si>
-  <si>
     <t>Requirement</t>
   </si>
   <si>
@@ -204,6 +195,12 @@
   </si>
   <si>
     <t>Monday</t>
+  </si>
+  <si>
+    <t>2. Updated Query Tracking Sheet</t>
+  </si>
+  <si>
+    <t>3. Minutes of Meeting(one sample)</t>
   </si>
 </sst>
 </file>
@@ -386,21 +383,63 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="16" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -410,49 +449,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -762,7 +759,7 @@
   <dimension ref="D5:I51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12:D19"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -779,16 +776,16 @@
     <row r="5" spans="4:9" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
     </row>
     <row r="6" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D6" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>1</v>
@@ -807,13 +804,13 @@
       </c>
     </row>
     <row r="7" spans="4:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="D7" s="13">
+      <c r="D7" s="15">
         <v>43389</v>
       </c>
-      <c r="E7" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" s="18" t="s">
+      <c r="E7" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="32" t="s">
         <v>5</v>
       </c>
       <c r="G7" s="6" t="s">
@@ -823,49 +820,47 @@
         <v>10</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="4:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="D8" s="13"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="18"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="32"/>
       <c r="G8" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="I8" s="12"/>
     </row>
     <row r="9" spans="4:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="D9" s="13"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="18"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="32"/>
       <c r="G9" s="6" t="s">
         <v>7</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="I9" s="12"/>
     </row>
     <row r="10" spans="4:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="D10" s="13"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="18"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="32"/>
       <c r="G10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="7" t="s">
-        <v>13</v>
-      </c>
+      <c r="H10" s="8"/>
       <c r="I10" s="12"/>
     </row>
     <row r="11" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D11" s="13"/>
+      <c r="D11" s="15"/>
       <c r="E11" s="17"/>
-      <c r="F11" s="18"/>
+      <c r="F11" s="32"/>
       <c r="G11" s="6" t="s">
         <v>9</v>
       </c>
@@ -873,375 +868,364 @@
       <c r="I11" s="12"/>
     </row>
     <row r="12" spans="4:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="D12" s="27">
+      <c r="D12" s="25">
         <v>43390</v>
       </c>
-      <c r="E12" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="F12" s="23" t="s">
+      <c r="E12" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="28" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="4:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="D13" s="26"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="29"/>
+    </row>
+    <row r="14" spans="4:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="D14" s="26"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="H14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14" s="29"/>
+    </row>
+    <row r="15" spans="4:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="D15" s="26"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H15" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="30" t="s">
+      <c r="I15" s="29"/>
+    </row>
+    <row r="16" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D16" s="26"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" s="29"/>
+    </row>
+    <row r="17" spans="4:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="D17" s="26"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="13" spans="4:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="D13" s="28"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I13" s="31"/>
-    </row>
-    <row r="14" spans="4:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="D14" s="28"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I14" s="31"/>
-    </row>
-    <row r="15" spans="4:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="D15" s="28"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="7" t="s">
+      <c r="I17" s="29"/>
+    </row>
+    <row r="18" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D18" s="26"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I18" s="29"/>
+    </row>
+    <row r="19" spans="4:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="D19" s="27"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I19" s="30"/>
+    </row>
+    <row r="20" spans="4:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D20" s="15">
+        <v>43391</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="I15" s="31"/>
-    </row>
-    <row r="16" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D16" s="28"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="9" t="s">
+      <c r="G20" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="4:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D21" s="15"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="12"/>
+    </row>
+    <row r="22" spans="4:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D22" s="15">
+        <v>43395</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I22" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="4:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D23" s="15"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I23" s="12"/>
+    </row>
+    <row r="24" spans="4:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D24" s="15"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="I24" s="12"/>
+    </row>
+    <row r="25" spans="4:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D25" s="15"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="H16" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I16" s="31"/>
-    </row>
-    <row r="17" spans="4:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="D17" s="28"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="H17" s="7" t="s">
+      <c r="I25" s="12"/>
+    </row>
+    <row r="26" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D26" s="15">
+        <v>43396</v>
+      </c>
+      <c r="E26" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="F26" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="I17" s="31"/>
-    </row>
-    <row r="18" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D18" s="28"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="I18" s="31"/>
-    </row>
-    <row r="19" spans="4:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="D19" s="29"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I19" s="32"/>
-    </row>
-    <row r="20" spans="4:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D20" s="13">
-        <v>43391</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="F20" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="G20" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="H20" s="33" t="s">
+      <c r="G26" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="I20" s="12" t="s">
+      <c r="H26" s="7" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="21" spans="4:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D21" s="13"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="12"/>
-    </row>
-    <row r="22" spans="4:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D22" s="13">
-        <v>43395</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="F22" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="G22" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="H22" s="10" t="s">
+      <c r="I26" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="4:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="D27" s="15"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="I22" s="12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" spans="4:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D23" s="13"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="I23" s="12"/>
-    </row>
-    <row r="24" spans="4:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D24" s="13"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="I24" s="12"/>
-    </row>
-    <row r="25" spans="4:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D25" s="13"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="I25" s="12"/>
-    </row>
-    <row r="26" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D26" s="13">
-        <v>43396</v>
-      </c>
-      <c r="E26" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="F26" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="G26" s="24" t="s">
+      <c r="I27" s="12"/>
+    </row>
+    <row r="28" spans="4:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="D28" s="15"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H26" s="7" t="s">
+      <c r="I28" s="12"/>
+    </row>
+    <row r="29" spans="4:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="D29" s="15"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="I26" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="4:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="D27" s="13"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="7" t="s">
+      <c r="I29" s="12"/>
+    </row>
+    <row r="30" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D30" s="15"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="I27" s="12"/>
-    </row>
-    <row r="28" spans="4:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="D28" s="13"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="7" t="s">
+      <c r="I30" s="12"/>
+    </row>
+    <row r="31" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D31" s="15"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="I28" s="12"/>
-    </row>
-    <row r="29" spans="4:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="D29" s="13"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="7" t="s">
+      <c r="I31" s="12"/>
+    </row>
+    <row r="32" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D32" s="15"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="I29" s="12"/>
-    </row>
-    <row r="30" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D30" s="13"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="7" t="s">
+      <c r="I32" s="12"/>
+    </row>
+    <row r="33" spans="4:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="D33" s="15"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="I30" s="12"/>
-    </row>
-    <row r="31" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D31" s="13"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="7" t="s">
+      <c r="I33" s="12"/>
+    </row>
+    <row r="34" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D34" s="15"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="I31" s="12"/>
-    </row>
-    <row r="32" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D32" s="13"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="7" t="s">
+      <c r="I34" s="12"/>
+    </row>
+    <row r="35" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D35" s="15"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="I32" s="12"/>
-    </row>
-    <row r="33" spans="4:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="D33" s="13"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="7" t="s">
+      <c r="I35" s="12"/>
+    </row>
+    <row r="36" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D36" s="15"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="I33" s="12"/>
-    </row>
-    <row r="34" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D34" s="13"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="7" t="s">
+      <c r="I36" s="12"/>
+    </row>
+    <row r="37" spans="4:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="D37" s="15"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="I34" s="12"/>
-    </row>
-    <row r="35" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D35" s="13"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="7" t="s">
+      <c r="I37" s="12"/>
+    </row>
+    <row r="38" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D38" s="15"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="I35" s="12"/>
-    </row>
-    <row r="36" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D36" s="13"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="24"/>
-      <c r="H36" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I36" s="12"/>
-    </row>
-    <row r="37" spans="4:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="D37" s="13"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I37" s="12"/>
-    </row>
-    <row r="38" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D38" s="13"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="7" t="s">
-        <v>49</v>
-      </c>
       <c r="I38" s="12"/>
     </row>
     <row r="39" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D39" s="13"/>
+      <c r="D39" s="15"/>
     </row>
     <row r="40" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D40" s="13"/>
+      <c r="D40" s="15"/>
     </row>
     <row r="41" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D41" s="13"/>
+      <c r="D41" s="15"/>
     </row>
     <row r="42" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D42" s="13"/>
+      <c r="D42" s="15"/>
     </row>
     <row r="43" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D43" s="13"/>
+      <c r="D43" s="15"/>
     </row>
     <row r="44" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D44" s="13"/>
+      <c r="D44" s="15"/>
     </row>
     <row r="45" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D45" s="13"/>
+      <c r="D45" s="15"/>
     </row>
     <row r="46" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D46" s="13"/>
+      <c r="D46" s="15"/>
     </row>
     <row r="47" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D47" s="13"/>
+      <c r="D47" s="15"/>
     </row>
     <row r="48" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D48" s="13"/>
+      <c r="D48" s="15"/>
     </row>
     <row r="49" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D49" s="13"/>
+      <c r="D49" s="15"/>
     </row>
     <row r="50" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D50" s="13"/>
+      <c r="D50" s="15"/>
     </row>
     <row r="51" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D51" s="13"/>
+      <c r="D51" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="F12:F19"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="E12:E19"/>
-    <mergeCell ref="D12:D19"/>
-    <mergeCell ref="I12:I19"/>
     <mergeCell ref="I22:I25"/>
     <mergeCell ref="D39:D51"/>
     <mergeCell ref="F5:I5"/>
@@ -1258,6 +1242,17 @@
     <mergeCell ref="G22:G25"/>
     <mergeCell ref="F26:F38"/>
     <mergeCell ref="G26:G38"/>
+    <mergeCell ref="F12:F19"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="E12:E19"/>
+    <mergeCell ref="D12:D19"/>
+    <mergeCell ref="I12:I19"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Project-folder-structure for CM/Project Tracking/Work Breakdown Structure/WBS_UniversityAdmissionSystem.xlsx
+++ b/Project-folder-structure for CM/Project Tracking/Work Breakdown Structure/WBS_UniversityAdmissionSystem.xlsx
@@ -158,9 +158,6 @@
     <t>9.MoM(one sample)</t>
   </si>
   <si>
-    <t>10.deployed application(war)</t>
-  </si>
-  <si>
     <t>11. Presentation PPT</t>
   </si>
   <si>
@@ -201,6 +198,9 @@
   </si>
   <si>
     <t>3. Minutes of Meeting(one sample)</t>
+  </si>
+  <si>
+    <t>10.Deployed application(war)</t>
   </si>
 </sst>
 </file>
@@ -383,74 +383,74 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -759,7 +759,7 @@
   <dimension ref="D5:I51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="E12" sqref="E12:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -776,16 +776,16 @@
     <row r="5" spans="4:9" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="31" t="s">
+      <c r="F5" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
     </row>
     <row r="6" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D6" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>1</v>
@@ -804,13 +804,13 @@
       </c>
     </row>
     <row r="7" spans="4:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="D7" s="15">
+      <c r="D7" s="34">
         <v>43389</v>
       </c>
-      <c r="E7" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="32" t="s">
+      <c r="E7" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="18" t="s">
         <v>5</v>
       </c>
       <c r="G7" s="6" t="s">
@@ -824,33 +824,33 @@
       </c>
     </row>
     <row r="8" spans="4:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="D8" s="15"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="32"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="18"/>
       <c r="G8" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I8" s="12"/>
     </row>
     <row r="9" spans="4:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="D9" s="15"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="32"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="18"/>
       <c r="G9" s="6" t="s">
         <v>7</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I9" s="12"/>
     </row>
     <row r="10" spans="4:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="D10" s="15"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="32"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="18"/>
       <c r="G10" s="6" t="s">
         <v>8</v>
       </c>
@@ -858,9 +858,9 @@
       <c r="I10" s="12"/>
     </row>
     <row r="11" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D11" s="15"/>
+      <c r="D11" s="34"/>
       <c r="E11" s="17"/>
-      <c r="F11" s="32"/>
+      <c r="F11" s="18"/>
       <c r="G11" s="6" t="s">
         <v>9</v>
       </c>
@@ -871,10 +871,10 @@
       <c r="D12" s="25">
         <v>43390</v>
       </c>
-      <c r="E12" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="F12" s="18" t="s">
+      <c r="E12" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="21" t="s">
         <v>12</v>
       </c>
       <c r="G12" s="6" t="s">
@@ -889,8 +889,8 @@
     </row>
     <row r="13" spans="4:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="D13" s="26"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="19"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="23"/>
       <c r="G13" s="6" t="s">
         <v>14</v>
       </c>
@@ -901,8 +901,8 @@
     </row>
     <row r="14" spans="4:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="D14" s="26"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="19"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="23"/>
       <c r="G14" s="6" t="s">
         <v>15</v>
       </c>
@@ -913,8 +913,8 @@
     </row>
     <row r="15" spans="4:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="D15" s="26"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="19"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="23"/>
       <c r="G15" s="6" t="s">
         <v>16</v>
       </c>
@@ -925,10 +925,10 @@
     </row>
     <row r="16" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D16" s="26"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="19"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="23"/>
       <c r="G16" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H16" s="7" t="s">
         <v>21</v>
@@ -937,9 +937,9 @@
     </row>
     <row r="17" spans="4:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="D17" s="26"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="23" t="s">
+      <c r="E17" s="16"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="22" t="s">
         <v>24</v>
       </c>
       <c r="H17" s="7" t="s">
@@ -949,38 +949,38 @@
     </row>
     <row r="18" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D18" s="26"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="23"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="22"/>
       <c r="H18" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I18" s="29"/>
     </row>
     <row r="19" spans="4:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="D19" s="27"/>
       <c r="E19" s="17"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="23"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="22"/>
       <c r="H19" s="7" t="s">
         <v>26</v>
       </c>
       <c r="I19" s="30"/>
     </row>
     <row r="20" spans="4:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D20" s="15">
+      <c r="D20" s="34">
         <v>43391</v>
       </c>
-      <c r="E20" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="F20" s="18" t="s">
+      <c r="E20" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="G20" s="20" t="s">
+      <c r="G20" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="H20" s="13" t="s">
+      <c r="H20" s="31" t="s">
         <v>30</v>
       </c>
       <c r="I20" s="12" t="s">
@@ -988,74 +988,74 @@
       </c>
     </row>
     <row r="21" spans="4:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D21" s="15"/>
+      <c r="D21" s="34"/>
       <c r="E21" s="17"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="14"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="32"/>
       <c r="I21" s="12"/>
     </row>
     <row r="22" spans="4:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D22" s="15">
+      <c r="D22" s="34">
         <v>43395</v>
       </c>
-      <c r="E22" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="F22" s="34" t="s">
+      <c r="E22" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="F22" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="G22" s="20" t="s">
+      <c r="G22" s="19" t="s">
         <v>29</v>
       </c>
       <c r="H22" s="10" t="s">
         <v>32</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="4:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D23" s="15"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="35"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="20"/>
       <c r="H23" s="10" t="s">
         <v>32</v>
       </c>
       <c r="I23" s="12"/>
     </row>
     <row r="24" spans="4:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D24" s="15"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="35"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="20"/>
       <c r="H24" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="I24" s="12"/>
+    </row>
+    <row r="25" spans="4:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D25" s="34"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="I24" s="12"/>
-    </row>
-    <row r="25" spans="4:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D25" s="15"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="11" t="s">
-        <v>53</v>
-      </c>
       <c r="I25" s="12"/>
     </row>
     <row r="26" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D26" s="15">
+      <c r="D26" s="34">
         <v>43396</v>
       </c>
-      <c r="E26" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="F26" s="18" t="s">
+      <c r="E26" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="F26" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="G26" s="23" t="s">
+      <c r="G26" s="22" t="s">
         <v>33</v>
       </c>
       <c r="H26" s="7" t="s">
@@ -1066,166 +1066,177 @@
       </c>
     </row>
     <row r="27" spans="4:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="D27" s="15"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="23"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="22"/>
       <c r="H27" s="7" t="s">
         <v>35</v>
       </c>
       <c r="I27" s="12"/>
     </row>
     <row r="28" spans="4:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="D28" s="15"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="23"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="22"/>
       <c r="H28" s="7" t="s">
         <v>36</v>
       </c>
       <c r="I28" s="12"/>
     </row>
     <row r="29" spans="4:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="D29" s="15"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="23"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="22"/>
       <c r="H29" s="7" t="s">
         <v>37</v>
       </c>
       <c r="I29" s="12"/>
     </row>
     <row r="30" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D30" s="15"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="23"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="22"/>
       <c r="H30" s="7" t="s">
         <v>38</v>
       </c>
       <c r="I30" s="12"/>
     </row>
     <row r="31" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D31" s="15"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="23"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="22"/>
       <c r="H31" s="7" t="s">
         <v>39</v>
       </c>
       <c r="I31" s="12"/>
     </row>
     <row r="32" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D32" s="15"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="23"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="22"/>
       <c r="H32" s="7" t="s">
         <v>40</v>
       </c>
       <c r="I32" s="12"/>
     </row>
     <row r="33" spans="4:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="D33" s="15"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="23"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="22"/>
       <c r="H33" s="7" t="s">
         <v>41</v>
       </c>
       <c r="I33" s="12"/>
     </row>
     <row r="34" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D34" s="15"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="23"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="22"/>
       <c r="H34" s="7" t="s">
         <v>42</v>
       </c>
       <c r="I34" s="12"/>
     </row>
     <row r="35" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D35" s="15"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="23"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="22"/>
       <c r="H35" s="7" t="s">
         <v>43</v>
       </c>
       <c r="I35" s="12"/>
     </row>
     <row r="36" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D36" s="15"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="23"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="22"/>
       <c r="H36" s="7" t="s">
         <v>44</v>
       </c>
       <c r="I36" s="12"/>
     </row>
     <row r="37" spans="4:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="D37" s="15"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="23"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="22"/>
       <c r="H37" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="I37" s="12"/>
+    </row>
+    <row r="38" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D38" s="34"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="I37" s="12"/>
-    </row>
-    <row r="38" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D38" s="15"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="7" t="s">
-        <v>46</v>
-      </c>
       <c r="I38" s="12"/>
     </row>
     <row r="39" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D39" s="15"/>
+      <c r="D39" s="13"/>
     </row>
     <row r="40" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D40" s="15"/>
+      <c r="D40" s="13"/>
     </row>
     <row r="41" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D41" s="15"/>
+      <c r="D41" s="13"/>
     </row>
     <row r="42" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D42" s="15"/>
+      <c r="D42" s="13"/>
     </row>
     <row r="43" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D43" s="15"/>
+      <c r="D43" s="13"/>
     </row>
     <row r="44" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D44" s="15"/>
+      <c r="D44" s="13"/>
     </row>
     <row r="45" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D45" s="15"/>
+      <c r="D45" s="13"/>
     </row>
     <row r="46" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D46" s="15"/>
+      <c r="D46" s="13"/>
     </row>
     <row r="47" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D47" s="15"/>
+      <c r="D47" s="13"/>
     </row>
     <row r="48" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D48" s="15"/>
+      <c r="D48" s="13"/>
     </row>
     <row r="49" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D49" s="15"/>
+      <c r="D49" s="13"/>
     </row>
     <row r="50" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D50" s="15"/>
+      <c r="D50" s="13"/>
     </row>
     <row r="51" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D51" s="15"/>
+      <c r="D51" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="F12:F19"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="E12:E19"/>
+    <mergeCell ref="D12:D19"/>
+    <mergeCell ref="I12:I19"/>
     <mergeCell ref="I22:I25"/>
     <mergeCell ref="D39:D51"/>
     <mergeCell ref="F5:I5"/>
@@ -1242,17 +1253,6 @@
     <mergeCell ref="G22:G25"/>
     <mergeCell ref="F26:F38"/>
     <mergeCell ref="G26:G38"/>
-    <mergeCell ref="F12:F19"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="E12:E19"/>
-    <mergeCell ref="D12:D19"/>
-    <mergeCell ref="I12:I19"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
